--- a/pendataan_peternak.xlsx
+++ b/pendataan_peternak.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KKN\Proker KKN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0C13C0-F45A-4B62-A357-05CF9CEEEB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B30D65-B165-4FAC-AE65-F6EFE87F7B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -410,7 +410,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
@@ -508,7 +508,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>38</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>14</c:v>
@@ -606,7 +606,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>72</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>56</c:v>
@@ -627,7 +627,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1089,7 +1088,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6</c:v>
@@ -1175,7 +1174,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>52</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>17</c:v>
@@ -1261,7 +1260,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>99</c:v>
@@ -1276,7 +1275,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3100,7 +3098,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3148,9 +3146,15 @@
       <c r="D2" s="2">
         <v>17</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="E2" s="4">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -3828,7 +3832,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="194" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3852,15 +3858,15 @@
       </c>
       <c r="B2" s="2">
         <f>SUMIF('Data Peternak'!$C$2:$C$31, 'Total per RT'!$A2, 'Data Peternak'!E$2:E$31)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2">
         <f>SUMIF('Data Peternak'!$C$2:$C$31, 'Total per RT'!$A2, 'Data Peternak'!F$2:F$31)</f>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2">
         <f>SUMIF('Data Peternak'!$C$2:$C$31, 'Total per RT'!$A2, 'Data Peternak'!G$2:G$31)</f>
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3925,7 +3931,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3950,15 +3956,15 @@
       </c>
       <c r="B2" s="2">
         <f>SUMIF('Data Peternak'!$D$2:$D$31, 'Total per RW'!$A2, 'Data Peternak'!E$2:E$31)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2">
         <f>SUMIF('Data Peternak'!$D$2:$D$31, 'Total per RW'!$A2, 'Data Peternak'!F$2:F$31)</f>
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2">
         <f>SUMIF('Data Peternak'!$D$2:$D$31, 'Total per RW'!$A2, 'Data Peternak'!G$2:G$31)</f>
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3980,7 +3986,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3989,7 +3996,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4017,15 +4024,15 @@
       </c>
       <c r="B2" s="2">
         <f>SUM('Data Peternak'!E2:E31)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
         <f>SUM('Data Peternak'!F2:F31)</f>
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2">
         <f>SUM('Data Peternak'!G2:G31)</f>
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="11:15" x14ac:dyDescent="0.25">
@@ -4034,5 +4041,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/pendataan_peternak.xlsx
+++ b/pendataan_peternak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KKN\Proker KKN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B30D65-B165-4FAC-AE65-F6EFE87F7B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3572AE2-E295-4945-AF29-40EA4CD104E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
